--- a/docs/playertable.xlsx
+++ b/docs/playertable.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wonderui/Hoop_Fantasy/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wonderui/Hoop_Fantasy/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -491,8 +491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="W8" sqref="W8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -543,10 +543,10 @@
       <c r="G1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>23</v>
       </c>
       <c r="J1" s="3" t="s">

--- a/docs/playertable.xlsx
+++ b/docs/playertable.xlsx
@@ -491,8 +491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U1" sqref="U1"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -573,7 +573,7 @@
       <c r="Q1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="3" t="s">
         <v>17</v>
       </c>
       <c r="S1" s="2" t="s">
